--- a/www.eia.gov/forecasts/steo/xls/Fig14.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig14.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Normal Range for Chart</t>
@@ -56,7 +56,7 @@
     <t>Range</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Note:  Colored band around storage levels represents the range between the minimum and maximum from Jan. 2012 - Dec. 2016.</t>
@@ -1129,10 +1129,10 @@
                   <c:v>139.29199999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>141.92528570999997</c:v>
+                  <c:v>144.46799999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>150.98712533000003</c:v>
+                  <c:v>152.99157143000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>150.82</c:v>
@@ -1165,10 +1165,10 @@
                   <c:v>139.29199999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>141.92528570999997</c:v>
+                  <c:v>144.46799999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>150.98712533000003</c:v>
+                  <c:v>152.99157143000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>150.82</c:v>
@@ -1201,10 +1201,10 @@
                   <c:v>139.29199999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>141.92528570999997</c:v>
+                  <c:v>144.46799999999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>150.98712533000003</c:v>
+                  <c:v>152.99157143000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>150.82</c:v>
@@ -1237,10 +1237,10 @@
                   <c:v>139.29199999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>141.92528570999997</c:v>
+                  <c:v>144.46799999999996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>150.98712533000003</c:v>
+                  <c:v>152.99157143000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>150.82</c:v>
@@ -1273,10 +1273,10 @@
                   <c:v>139.29199999999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>141.92528570999997</c:v>
+                  <c:v>144.46799999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>150.98712533000003</c:v>
+                  <c:v>152.99157143000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>150.82</c:v>
@@ -1309,10 +1309,10 @@
                   <c:v>139.29199999999997</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>141.92528570999997</c:v>
+                  <c:v>144.46799999999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>150.98712533000003</c:v>
+                  <c:v>152.99157143000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>150.82</c:v>
@@ -1345,10 +1345,10 @@
                   <c:v>139.29199999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>141.92528570999997</c:v>
+                  <c:v>144.46799999999996</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>150.98712533000003</c:v>
+                  <c:v>152.99157143000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,8 +1362,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446185584"/>
-        <c:axId val="446185024"/>
+        <c:axId val="305448400"/>
+        <c:axId val="305447840"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1826,82 +1826,82 @@
                   <c:v>488.82299999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>486.09728570999999</c:v>
+                  <c:v>488.64</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>478.17812533</c:v>
+                  <c:v>480.18257143</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>485.67649999999998</c:v>
+                  <c:v>495.97141527000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>490.47219999999999</c:v>
+                  <c:v>499.62909999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>500.9735</c:v>
+                  <c:v>509.1182</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>506.81909999999999</c:v>
+                  <c:v>514.06349999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>503.7441</c:v>
+                  <c:v>510.18770000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>490.26650000000001</c:v>
+                  <c:v>495.99779999999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>473.78609999999998</c:v>
+                  <c:v>478.88389999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>465.63339999999999</c:v>
+                  <c:v>470.16770000000002</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>465.59059999999999</c:v>
+                  <c:v>469.62369999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>472.43490000000003</c:v>
+                  <c:v>476.0222</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>468.5421</c:v>
+                  <c:v>471.7328</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>453.90179999999998</c:v>
+                  <c:v>456.81009999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>463.9631</c:v>
+                  <c:v>466.6053</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>472.92790000000002</c:v>
+                  <c:v>475.5625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>485.06270000000001</c:v>
+                  <c:v>487.65910000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>491.43520000000001</c:v>
+                  <c:v>493.96969999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>488.90929999999997</c:v>
+                  <c:v>491.36380000000003</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>477.95260000000002</c:v>
+                  <c:v>480.31380000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>463.74250000000001</c:v>
+                  <c:v>466.00119999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>457.41410000000002</c:v>
+                  <c:v>459.56400000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>456.83109999999999</c:v>
+                  <c:v>458.86869999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>464.0034</c:v>
+                  <c:v>465.92720000000003</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>462.35430000000002</c:v>
+                  <c:v>464.16449999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>451.83499999999998</c:v>
+                  <c:v>453.60359999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,8 +1918,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446185584"/>
-        <c:axId val="446185024"/>
+        <c:axId val="305448400"/>
+        <c:axId val="305447840"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2005,10 +2005,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2038,11 +2038,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446160944"/>
-        <c:axId val="446169904"/>
+        <c:axId val="305437200"/>
+        <c:axId val="305440560"/>
       </c:scatterChart>
       <c:dateAx>
-        <c:axId val="446185584"/>
+        <c:axId val="305448400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2059,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446185024"/>
+        <c:crossAx val="305447840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -2070,7 +2070,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446185024"/>
+        <c:axId val="305447840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -2098,13 +2098,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446185584"/>
+        <c:crossAx val="305448400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446160944"/>
+        <c:axId val="305437200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="84"/>
@@ -2121,12 +2121,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446169904"/>
+        <c:crossAx val="305440560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446169904"/>
+        <c:axId val="305440560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2143,7 +2143,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446160944"/>
+        <c:crossAx val="305437200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2259,7 +2259,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -2559,7 +2559,7 @@
             <v>344.17200000000003</v>
           </cell>
           <cell r="E38">
-            <v>141.92528570999997</v>
+            <v>144.46799999999996</v>
           </cell>
         </row>
         <row r="39">
@@ -2573,7 +2573,7 @@
             <v>327.19099999999997</v>
           </cell>
           <cell r="E39">
-            <v>150.98712533000003</v>
+            <v>152.99157143000002</v>
           </cell>
         </row>
         <row r="40">
@@ -2727,7 +2727,7 @@
             <v>344.17200000000003</v>
           </cell>
           <cell r="E50">
-            <v>141.92528570999997</v>
+            <v>144.46799999999996</v>
           </cell>
         </row>
         <row r="51">
@@ -2741,7 +2741,7 @@
             <v>327.19099999999997</v>
           </cell>
           <cell r="E51">
-            <v>150.98712533000003</v>
+            <v>152.99157143000002</v>
           </cell>
         </row>
         <row r="52">
@@ -2895,7 +2895,7 @@
             <v>344.17200000000003</v>
           </cell>
           <cell r="E62">
-            <v>141.92528570999997</v>
+            <v>144.46799999999996</v>
           </cell>
         </row>
         <row r="63">
@@ -2909,7 +2909,7 @@
             <v>327.19099999999997</v>
           </cell>
           <cell r="E63">
-            <v>150.98712533000003</v>
+            <v>152.99157143000002</v>
           </cell>
         </row>
         <row r="64">
@@ -3063,7 +3063,7 @@
             <v>344.17200000000003</v>
           </cell>
           <cell r="E74">
-            <v>141.92528570999997</v>
+            <v>144.46799999999996</v>
           </cell>
         </row>
         <row r="75">
@@ -3077,7 +3077,7 @@
             <v>327.19099999999997</v>
           </cell>
           <cell r="E75">
-            <v>150.98712533000003</v>
+            <v>152.99157143000002</v>
           </cell>
         </row>
         <row r="76">
@@ -3225,13 +3225,13 @@
             <v>42675</v>
           </cell>
           <cell r="B86">
-            <v>486.09728570999999</v>
+            <v>488.64</v>
           </cell>
           <cell r="C86">
             <v>344.17200000000003</v>
           </cell>
           <cell r="E86">
-            <v>141.92528570999997</v>
+            <v>144.46799999999996</v>
           </cell>
         </row>
         <row r="87">
@@ -3239,13 +3239,13 @@
             <v>42705</v>
           </cell>
           <cell r="B87">
-            <v>478.17812533</v>
+            <v>480.18257143</v>
           </cell>
           <cell r="C87">
             <v>327.19099999999997</v>
           </cell>
           <cell r="E87">
-            <v>150.98712533000003</v>
+            <v>152.99157143000002</v>
           </cell>
         </row>
         <row r="88">
@@ -3253,7 +3253,7 @@
             <v>42736</v>
           </cell>
           <cell r="B88">
-            <v>485.67649999999998</v>
+            <v>495.97141527000002</v>
           </cell>
           <cell r="C88">
             <v>317.88200000000001</v>
@@ -3267,7 +3267,7 @@
             <v>42767</v>
           </cell>
           <cell r="B89">
-            <v>490.47219999999999</v>
+            <v>499.62909999999999</v>
           </cell>
           <cell r="C89">
             <v>322.87900000000002</v>
@@ -3281,7 +3281,7 @@
             <v>42795</v>
           </cell>
           <cell r="B90">
-            <v>500.9735</v>
+            <v>509.1182</v>
           </cell>
           <cell r="C90">
             <v>347.608</v>
@@ -3295,7 +3295,7 @@
             <v>42826</v>
           </cell>
           <cell r="B91">
-            <v>506.81909999999999</v>
+            <v>514.06349999999998</v>
           </cell>
           <cell r="C91">
             <v>357.04500000000002</v>
@@ -3309,7 +3309,7 @@
             <v>42856</v>
           </cell>
           <cell r="B92">
-            <v>503.7441</v>
+            <v>510.18770000000001</v>
           </cell>
           <cell r="C92">
             <v>363.30399999999997</v>
@@ -3323,7 +3323,7 @@
             <v>42887</v>
           </cell>
           <cell r="B93">
-            <v>490.26650000000001</v>
+            <v>495.99779999999998</v>
           </cell>
           <cell r="C93">
             <v>348.80700000000002</v>
@@ -3337,7 +3337,7 @@
             <v>42917</v>
           </cell>
           <cell r="B94">
-            <v>473.78609999999998</v>
+            <v>478.88389999999998</v>
           </cell>
           <cell r="C94">
             <v>338.73700000000002</v>
@@ -3351,7 +3351,7 @@
             <v>42948</v>
           </cell>
           <cell r="B95">
-            <v>465.63339999999999</v>
+            <v>470.16770000000002</v>
           </cell>
           <cell r="C95">
             <v>331.07600000000002</v>
@@ -3365,7 +3365,7 @@
             <v>42979</v>
           </cell>
           <cell r="B96">
-            <v>465.59059999999999</v>
+            <v>469.62369999999999</v>
           </cell>
           <cell r="C96">
             <v>332.15499999999997</v>
@@ -3379,7 +3379,7 @@
             <v>43009</v>
           </cell>
           <cell r="B97">
-            <v>472.43490000000003</v>
+            <v>476.0222</v>
           </cell>
           <cell r="C97">
             <v>349.53100000000001</v>
@@ -3393,13 +3393,13 @@
             <v>43040</v>
           </cell>
           <cell r="B98">
-            <v>468.5421</v>
+            <v>471.7328</v>
           </cell>
           <cell r="C98">
             <v>344.17200000000003</v>
           </cell>
           <cell r="E98">
-            <v>141.92528570999997</v>
+            <v>144.46799999999996</v>
           </cell>
         </row>
         <row r="99">
@@ -3407,13 +3407,13 @@
             <v>43070</v>
           </cell>
           <cell r="B99">
-            <v>453.90179999999998</v>
+            <v>456.81009999999998</v>
           </cell>
           <cell r="C99">
             <v>327.19099999999997</v>
           </cell>
           <cell r="E99">
-            <v>150.98712533000003</v>
+            <v>152.99157143000002</v>
           </cell>
         </row>
         <row r="100">
@@ -3421,7 +3421,7 @@
             <v>43101</v>
           </cell>
           <cell r="B100">
-            <v>463.9631</v>
+            <v>466.6053</v>
           </cell>
           <cell r="C100">
             <v>317.88200000000001</v>
@@ -3435,7 +3435,7 @@
             <v>43132</v>
           </cell>
           <cell r="B101">
-            <v>472.92790000000002</v>
+            <v>475.5625</v>
           </cell>
           <cell r="C101">
             <v>322.87900000000002</v>
@@ -3449,7 +3449,7 @@
             <v>43160</v>
           </cell>
           <cell r="B102">
-            <v>485.06270000000001</v>
+            <v>487.65910000000002</v>
           </cell>
           <cell r="C102">
             <v>347.608</v>
@@ -3463,7 +3463,7 @@
             <v>43191</v>
           </cell>
           <cell r="B103">
-            <v>491.43520000000001</v>
+            <v>493.96969999999999</v>
           </cell>
           <cell r="C103">
             <v>357.04500000000002</v>
@@ -3477,7 +3477,7 @@
             <v>43221</v>
           </cell>
           <cell r="B104">
-            <v>488.90929999999997</v>
+            <v>491.36380000000003</v>
           </cell>
           <cell r="C104">
             <v>363.30399999999997</v>
@@ -3491,7 +3491,7 @@
             <v>43252</v>
           </cell>
           <cell r="B105">
-            <v>477.95260000000002</v>
+            <v>480.31380000000001</v>
           </cell>
           <cell r="C105">
             <v>348.80700000000002</v>
@@ -3505,7 +3505,7 @@
             <v>43282</v>
           </cell>
           <cell r="B106">
-            <v>463.74250000000001</v>
+            <v>466.00119999999998</v>
           </cell>
           <cell r="C106">
             <v>338.73700000000002</v>
@@ -3519,7 +3519,7 @@
             <v>43313</v>
           </cell>
           <cell r="B107">
-            <v>457.41410000000002</v>
+            <v>459.56400000000002</v>
           </cell>
           <cell r="C107">
             <v>331.07600000000002</v>
@@ -3533,7 +3533,7 @@
             <v>43344</v>
           </cell>
           <cell r="B108">
-            <v>456.83109999999999</v>
+            <v>458.86869999999999</v>
           </cell>
           <cell r="C108">
             <v>332.15499999999997</v>
@@ -3547,7 +3547,7 @@
             <v>43374</v>
           </cell>
           <cell r="B109">
-            <v>464.0034</v>
+            <v>465.92720000000003</v>
           </cell>
           <cell r="C109">
             <v>349.53100000000001</v>
@@ -3561,13 +3561,13 @@
             <v>43405</v>
           </cell>
           <cell r="B110">
-            <v>462.35430000000002</v>
+            <v>464.16449999999998</v>
           </cell>
           <cell r="C110">
             <v>344.17200000000003</v>
           </cell>
           <cell r="E110">
-            <v>141.92528570999997</v>
+            <v>144.46799999999996</v>
           </cell>
         </row>
         <row r="111">
@@ -3575,13 +3575,13 @@
             <v>43435</v>
           </cell>
           <cell r="B111">
-            <v>451.83499999999998</v>
+            <v>453.60359999999997</v>
           </cell>
           <cell r="C111">
             <v>327.19099999999997</v>
           </cell>
           <cell r="E111">
-            <v>150.98712533000003</v>
+            <v>152.99157143000002</v>
           </cell>
         </row>
         <row r="115">
@@ -3591,7 +3591,7 @@
         </row>
         <row r="116">
           <cell r="A116">
-            <v>60</v>
+            <v>61</v>
           </cell>
           <cell r="B116">
             <v>0</v>
@@ -3599,7 +3599,7 @@
         </row>
         <row r="117">
           <cell r="A117">
-            <v>60</v>
+            <v>61</v>
           </cell>
           <cell r="B117">
             <v>1</v>
@@ -4165,11 +4165,11 @@
       </c>
       <c r="D38" s="14">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>486.09728570999999</v>
+        <v>488.64</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="0"/>
-        <v>141.92528570999997</v>
+        <v>144.46799999999996</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4185,11 +4185,11 @@
       </c>
       <c r="D39" s="14">
         <f>MAX($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>478.17812533</v>
+        <v>480.18257143</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" si="0"/>
-        <v>150.98712533000003</v>
+        <v>152.99157143000002</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4405,11 +4405,11 @@
       </c>
       <c r="D50" s="14">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>486.09728570999999</v>
+        <v>488.64</v>
       </c>
       <c r="E50" s="14">
         <f t="shared" si="0"/>
-        <v>141.92528570999997</v>
+        <v>144.46799999999996</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4425,11 +4425,11 @@
       </c>
       <c r="D51" s="14">
         <f>MAX($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>478.17812533</v>
+        <v>480.18257143</v>
       </c>
       <c r="E51" s="14">
         <f t="shared" si="0"/>
-        <v>150.98712533000003</v>
+        <v>152.99157143000002</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4645,11 +4645,11 @@
       </c>
       <c r="D62" s="14">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>486.09728570999999</v>
+        <v>488.64</v>
       </c>
       <c r="E62" s="14">
         <f t="shared" si="0"/>
-        <v>141.92528570999997</v>
+        <v>144.46799999999996</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4665,11 +4665,11 @@
       </c>
       <c r="D63" s="14">
         <f>MAX($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>478.17812533</v>
+        <v>480.18257143</v>
       </c>
       <c r="E63" s="14">
         <f t="shared" si="0"/>
-        <v>150.98712533000003</v>
+        <v>152.99157143000002</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4885,11 +4885,11 @@
       </c>
       <c r="D74" s="14">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>486.09728570999999</v>
+        <v>488.64</v>
       </c>
       <c r="E74" s="14">
         <f t="shared" si="0"/>
-        <v>141.92528570999997</v>
+        <v>144.46799999999996</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4905,11 +4905,11 @@
       </c>
       <c r="D75" s="14">
         <f>MAX($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>478.17812533</v>
+        <v>480.18257143</v>
       </c>
       <c r="E75" s="14">
         <f t="shared" si="0"/>
-        <v>150.98712533000003</v>
+        <v>152.99157143000002</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -5117,7 +5117,7 @@
         <v>42675</v>
       </c>
       <c r="B86" s="13">
-        <v>486.09728570999999</v>
+        <v>488.64</v>
       </c>
       <c r="C86" s="14">
         <f>MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
@@ -5125,11 +5125,11 @@
       </c>
       <c r="D86" s="14">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>486.09728570999999</v>
+        <v>488.64</v>
       </c>
       <c r="E86" s="14">
         <f t="shared" si="0"/>
-        <v>141.92528570999997</v>
+        <v>144.46799999999996</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5137,7 +5137,7 @@
         <v>42705</v>
       </c>
       <c r="B87" s="13">
-        <v>478.17812533</v>
+        <v>480.18257143</v>
       </c>
       <c r="C87" s="14">
         <f>MIN($B$39,$B$51,$B$63,$B$75,$B$87)</f>
@@ -5145,11 +5145,11 @@
       </c>
       <c r="D87" s="14">
         <f>MAX($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>478.17812533</v>
+        <v>480.18257143</v>
       </c>
       <c r="E87" s="14">
         <f t="shared" si="0"/>
-        <v>150.98712533000003</v>
+        <v>152.99157143000002</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -5157,7 +5157,7 @@
         <v>42736</v>
       </c>
       <c r="B88" s="13">
-        <v>485.67649999999998</v>
+        <v>495.97141527000002</v>
       </c>
       <c r="C88" s="14">
         <f>MIN($B$28,$B$40,$B$52,$B$64,$B$76)</f>
@@ -5177,7 +5177,7 @@
         <v>42767</v>
       </c>
       <c r="B89" s="13">
-        <v>490.47219999999999</v>
+        <v>499.62909999999999</v>
       </c>
       <c r="C89" s="14">
         <f>MIN($B$29,$B$41,$B$53,$B$65,$B$77)</f>
@@ -5197,7 +5197,7 @@
         <v>42795</v>
       </c>
       <c r="B90" s="13">
-        <v>500.9735</v>
+        <v>509.1182</v>
       </c>
       <c r="C90" s="14">
         <f>MIN($B$30,$B$42,$B$54,$B$66,$B$78)</f>
@@ -5217,7 +5217,7 @@
         <v>42826</v>
       </c>
       <c r="B91" s="13">
-        <v>506.81909999999999</v>
+        <v>514.06349999999998</v>
       </c>
       <c r="C91" s="14">
         <f>MIN($B$31,$B$43,$B$55,$B$67,$B$79)</f>
@@ -5237,7 +5237,7 @@
         <v>42856</v>
       </c>
       <c r="B92" s="13">
-        <v>503.7441</v>
+        <v>510.18770000000001</v>
       </c>
       <c r="C92" s="14">
         <f>MIN($B$32,$B$44,$B$56,$B$68,$B$80)</f>
@@ -5257,7 +5257,7 @@
         <v>42887</v>
       </c>
       <c r="B93" s="13">
-        <v>490.26650000000001</v>
+        <v>495.99779999999998</v>
       </c>
       <c r="C93" s="14">
         <f>MIN($B$33,$B$45,$B$57,$B$69,$B$81)</f>
@@ -5277,7 +5277,7 @@
         <v>42917</v>
       </c>
       <c r="B94" s="13">
-        <v>473.78609999999998</v>
+        <v>478.88389999999998</v>
       </c>
       <c r="C94" s="14">
         <f>MIN($B$34,$B$46,$B$58,$B$70,$B$82)</f>
@@ -5297,7 +5297,7 @@
         <v>42948</v>
       </c>
       <c r="B95" s="13">
-        <v>465.63339999999999</v>
+        <v>470.16770000000002</v>
       </c>
       <c r="C95" s="14">
         <f>MIN($B$35,$B$47,$B$59,$B$71,$B$83)</f>
@@ -5317,7 +5317,7 @@
         <v>42979</v>
       </c>
       <c r="B96" s="13">
-        <v>465.59059999999999</v>
+        <v>469.62369999999999</v>
       </c>
       <c r="C96" s="14">
         <f>MIN($B$36,$B$48,$B$60,$B$72,$B$84)</f>
@@ -5337,7 +5337,7 @@
         <v>43009</v>
       </c>
       <c r="B97" s="13">
-        <v>472.43490000000003</v>
+        <v>476.0222</v>
       </c>
       <c r="C97" s="14">
         <f>MIN($B$37,$B$49,$B$61,$B$73,$B$85)</f>
@@ -5357,7 +5357,7 @@
         <v>43040</v>
       </c>
       <c r="B98" s="13">
-        <v>468.5421</v>
+        <v>471.7328</v>
       </c>
       <c r="C98" s="14">
         <f>MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
@@ -5365,11 +5365,11 @@
       </c>
       <c r="D98" s="14">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>486.09728570999999</v>
+        <v>488.64</v>
       </c>
       <c r="E98" s="14">
         <f t="shared" si="1"/>
-        <v>141.92528570999997</v>
+        <v>144.46799999999996</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -5377,7 +5377,7 @@
         <v>43070</v>
       </c>
       <c r="B99" s="16">
-        <v>453.90179999999998</v>
+        <v>456.81009999999998</v>
       </c>
       <c r="C99" s="14">
         <f>MIN($B$39,$B$51,$B$63,$B$75,$B$87)</f>
@@ -5385,11 +5385,11 @@
       </c>
       <c r="D99" s="14">
         <f>MAX($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>478.17812533</v>
+        <v>480.18257143</v>
       </c>
       <c r="E99" s="14">
         <f t="shared" si="1"/>
-        <v>150.98712533000003</v>
+        <v>152.99157143000002</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -5397,7 +5397,7 @@
         <v>43101</v>
       </c>
       <c r="B100" s="16">
-        <v>463.9631</v>
+        <v>466.6053</v>
       </c>
       <c r="C100" s="14">
         <f>MIN($B$28,$B$40,$B$52,$B$64,$B$76)</f>
@@ -5417,7 +5417,7 @@
         <v>43132</v>
       </c>
       <c r="B101" s="16">
-        <v>472.92790000000002</v>
+        <v>475.5625</v>
       </c>
       <c r="C101" s="14">
         <f>MIN($B$29,$B$41,$B$53,$B$65,$B$77)</f>
@@ -5437,7 +5437,7 @@
         <v>43160</v>
       </c>
       <c r="B102" s="16">
-        <v>485.06270000000001</v>
+        <v>487.65910000000002</v>
       </c>
       <c r="C102" s="14">
         <f>MIN($B$30,$B$42,$B$54,$B$66,$B$78)</f>
@@ -5457,7 +5457,7 @@
         <v>43191</v>
       </c>
       <c r="B103" s="16">
-        <v>491.43520000000001</v>
+        <v>493.96969999999999</v>
       </c>
       <c r="C103" s="14">
         <f>MIN($B$31,$B$43,$B$55,$B$67,$B$79)</f>
@@ -5477,7 +5477,7 @@
         <v>43221</v>
       </c>
       <c r="B104" s="16">
-        <v>488.90929999999997</v>
+        <v>491.36380000000003</v>
       </c>
       <c r="C104" s="14">
         <f>MIN($B$32,$B$44,$B$56,$B$68,$B$80)</f>
@@ -5497,7 +5497,7 @@
         <v>43252</v>
       </c>
       <c r="B105" s="16">
-        <v>477.95260000000002</v>
+        <v>480.31380000000001</v>
       </c>
       <c r="C105" s="14">
         <f>MIN($B$33,$B$45,$B$57,$B$69,$B$81)</f>
@@ -5517,7 +5517,7 @@
         <v>43282</v>
       </c>
       <c r="B106" s="16">
-        <v>463.74250000000001</v>
+        <v>466.00119999999998</v>
       </c>
       <c r="C106" s="14">
         <f>MIN($B$34,$B$46,$B$58,$B$70,$B$82)</f>
@@ -5537,7 +5537,7 @@
         <v>43313</v>
       </c>
       <c r="B107" s="16">
-        <v>457.41410000000002</v>
+        <v>459.56400000000002</v>
       </c>
       <c r="C107" s="14">
         <f>MIN($B$35,$B$47,$B$59,$B$71,$B$83)</f>
@@ -5558,7 +5558,7 @@
         <v>43344</v>
       </c>
       <c r="B108" s="16">
-        <v>456.83109999999999</v>
+        <v>458.86869999999999</v>
       </c>
       <c r="C108" s="14">
         <f>MIN($B$36,$B$48,$B$60,$B$72,$B$84)</f>
@@ -5579,7 +5579,7 @@
         <v>43374</v>
       </c>
       <c r="B109" s="16">
-        <v>464.0034</v>
+        <v>465.92720000000003</v>
       </c>
       <c r="C109" s="14">
         <f>MIN($B$37,$B$49,$B$61,$B$73,$B$85)</f>
@@ -5600,7 +5600,7 @@
         <v>43405</v>
       </c>
       <c r="B110" s="16">
-        <v>462.35430000000002</v>
+        <v>464.16449999999998</v>
       </c>
       <c r="C110" s="14">
         <f>MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
@@ -5608,11 +5608,11 @@
       </c>
       <c r="D110" s="14">
         <f>MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>486.09728570999999</v>
+        <v>488.64</v>
       </c>
       <c r="E110" s="14">
         <f t="shared" si="1"/>
-        <v>141.92528570999997</v>
+        <v>144.46799999999996</v>
       </c>
       <c r="F110" s="6"/>
     </row>
@@ -5621,7 +5621,7 @@
         <v>43435</v>
       </c>
       <c r="B111" s="18">
-        <v>451.83499999999998</v>
+        <v>453.60359999999997</v>
       </c>
       <c r="C111" s="19">
         <f>MIN($B$39,$B$51,$B$63,$B$75,$B$87)</f>
@@ -5629,11 +5629,11 @@
       </c>
       <c r="D111" s="19">
         <f>MAX($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>478.17812533</v>
+        <v>480.18257143</v>
       </c>
       <c r="E111" s="19">
         <f t="shared" si="1"/>
-        <v>150.98712533000003</v>
+        <v>152.99157143000002</v>
       </c>
       <c r="F111" s="6"/>
     </row>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B116" s="2">
         <v>0</v>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B117" s="2">
         <v>1</v>
